--- a/00.data/01.incertezas/Global_Policy_Uncertainty_Data.xlsx
+++ b/00.data/01.incertezas/Global_Policy_Uncertainty_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kms12\Documents\R\EPU\Monthly Files\2025-09-17\Submission 2025-09-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kms12\Documents\R\EPU\Monthly Files\2025-10-16\Submission 2025-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3DB8E7-E1B3-4081-92C7-143428B105BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5A9F4-4C56-4A71-B168-FB8BEA3836A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D347"/>
+  <dimension ref="A1:D348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="A345" sqref="A345"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="A346" sqref="A346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>75.710093499131943</v>
+        <v>75.585468467290752</v>
       </c>
       <c r="D2">
-        <v>78.881729116015862</v>
+        <v>78.571180724215637</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -470,10 +470,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>76.09253464128706</v>
+        <v>76.104191634932121</v>
       </c>
       <c r="D3">
-        <v>75.635868954726348</v>
+        <v>75.664772595555306</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>66.729629665457267</v>
+        <v>66.568757405486039</v>
       </c>
       <c r="D4">
-        <v>64.610263039415727</v>
+        <v>64.209641320864947</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>71.705504006248859</v>
+        <v>71.689527290212055</v>
       </c>
       <c r="D5">
-        <v>71.740915378185804</v>
+        <v>71.701272714045288</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>75.405828842433849</v>
+        <v>75.359956878982587</v>
       </c>
       <c r="D6">
-        <v>82.412572740107009</v>
+        <v>82.298049582334741</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -526,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>79.438517787437505</v>
+        <v>79.496588375325189</v>
       </c>
       <c r="D7">
-        <v>82.855566138512927</v>
+        <v>83.000373581312658</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -540,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>66.071880567119891</v>
+        <v>66.037545253758339</v>
       </c>
       <c r="D8">
-        <v>66.500306259346956</v>
+        <v>66.414801683480221</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -554,10 +554,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>62.898547595697856</v>
+        <v>62.784866919034656</v>
       </c>
       <c r="D9">
-        <v>58.235891724102146</v>
+        <v>57.952762308742578</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>65.982165229292107</v>
+        <v>65.85963166387377</v>
       </c>
       <c r="D10">
-        <v>60.956180765801498</v>
+        <v>60.651293172159754</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -582,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>81.721766661426301</v>
+        <v>81.6606993376286</v>
       </c>
       <c r="D11">
-        <v>76.102707615889912</v>
+        <v>75.950659920478358</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -596,10 +596,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>93.439947397552743</v>
+        <v>93.201897109725252</v>
       </c>
       <c r="D12">
-        <v>84.542874807490293</v>
+        <v>83.950289238710653</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -610,10 +610,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>104.7503386294763</v>
+        <v>104.5351075645451</v>
       </c>
       <c r="D13">
-        <v>92.996360802707912</v>
+        <v>92.459980529137582</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -624,10 +624,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>95.368284977592765</v>
+        <v>95.097440150427346</v>
       </c>
       <c r="D14">
-        <v>88.805428429046074</v>
+        <v>88.1445689993093</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -638,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>82.271303223506919</v>
+        <v>81.993069395063131</v>
       </c>
       <c r="D15">
-        <v>76.312197240806583</v>
+        <v>75.63332218241041</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -652,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>83.828054476289338</v>
+        <v>83.661263702291023</v>
       </c>
       <c r="D16">
-        <v>76.491840340398312</v>
+        <v>76.085118317501639</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -666,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>78.298500500578868</v>
+        <v>77.991060295727891</v>
       </c>
       <c r="D17">
-        <v>72.053255947015614</v>
+        <v>71.303680642765627</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -680,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>84.804437934522923</v>
+        <v>84.535942632330034</v>
       </c>
       <c r="D18">
-        <v>78.553997947168241</v>
+        <v>77.8988796701544</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -694,10 +694,10 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>82.508174314173687</v>
+        <v>82.253966081416465</v>
       </c>
       <c r="D19">
-        <v>76.691984012965321</v>
+        <v>76.072200144927976</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -708,10 +708,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>99.55935449559874</v>
+        <v>99.306226756332975</v>
       </c>
       <c r="D20">
-        <v>92.387933843448181</v>
+        <v>91.770591197924119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -722,10 +722,10 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>112.76685255848143</v>
+        <v>112.50158291033887</v>
       </c>
       <c r="D21">
-        <v>103.74081662908976</v>
+        <v>103.0937688080636</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -736,10 +736,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>143.35174546882737</v>
+        <v>143.52536533238219</v>
       </c>
       <c r="D22">
-        <v>142.26202990254873</v>
+        <v>142.68581398014015</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -750,10 +750,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>117.23373142048048</v>
+        <v>116.95169058861013</v>
       </c>
       <c r="D23">
-        <v>108.75671063174082</v>
+        <v>108.06888720198313</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,10 +764,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>96.946152723834714</v>
+        <v>96.815928335961246</v>
       </c>
       <c r="D24">
-        <v>90.389109984782266</v>
+        <v>90.071614227082492</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,10 +778,10 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>91.507858274997332</v>
+        <v>91.425728101479365</v>
       </c>
       <c r="D25">
-        <v>89.171308798645981</v>
+        <v>88.970842940219782</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>94.66183666804794</v>
+        <v>94.695194009687313</v>
       </c>
       <c r="D26">
-        <v>91.411691616268627</v>
+        <v>91.49401821271482</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>78.418510287088949</v>
+        <v>78.422000836515849</v>
       </c>
       <c r="D27">
-        <v>74.688582481059797</v>
+        <v>74.697052247642077</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,10 +820,10 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>61.88881685202432</v>
+        <v>61.880852797032709</v>
       </c>
       <c r="D28">
-        <v>56.537048105547562</v>
+        <v>56.51740925169905</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,10 +834,10 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>65.096052625998695</v>
+        <v>65.058784928009956</v>
       </c>
       <c r="D29">
-        <v>63.334136100310289</v>
+        <v>63.242179647005145</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,10 +848,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>68.535821147984294</v>
+        <v>68.463228898915091</v>
       </c>
       <c r="D30">
-        <v>67.331858773487127</v>
+        <v>67.152366078247852</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,10 +862,10 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>69.773889238529335</v>
+        <v>69.74847081060912</v>
       </c>
       <c r="D31">
-        <v>66.935545709912432</v>
+        <v>66.872818634470988</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -876,10 +876,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>71.798931571791755</v>
+        <v>71.8381628661147</v>
       </c>
       <c r="D32">
-        <v>70.011222910217739</v>
+        <v>70.108201077815082</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,10 +890,10 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>64.87093390617531</v>
+        <v>64.947245444260886</v>
       </c>
       <c r="D33">
-        <v>67.660688093199767</v>
+        <v>67.849251051870311</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -904,10 +904,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>65.738090853462836</v>
+        <v>65.683290509758578</v>
       </c>
       <c r="D34">
-        <v>61.616841928904613</v>
+        <v>61.481585300085015</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,10 +918,10 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>65.331852681909879</v>
+        <v>65.370103255852953</v>
       </c>
       <c r="D35">
-        <v>65.96760368359179</v>
+        <v>66.062174621213856</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>68.060575460248273</v>
+        <v>68.055878706936113</v>
       </c>
       <c r="D36">
-        <v>65.057320462581416</v>
+        <v>65.045779942671871</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -946,10 +946,10 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>60.820345570230323</v>
+        <v>60.750952090381958</v>
       </c>
       <c r="D37">
-        <v>57.923638435176862</v>
+        <v>57.752033008152239</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -960,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>65.267497611126885</v>
+        <v>65.282606464068508</v>
       </c>
       <c r="D38">
-        <v>66.369376863253493</v>
+        <v>66.405312285478132</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -974,10 +974,10 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>59.30333305606888</v>
+        <v>59.307426757865329</v>
       </c>
       <c r="D39">
-        <v>55.567122238826151</v>
+        <v>55.576822457587163</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -988,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>61.956385472485209</v>
+        <v>61.968276707393557</v>
       </c>
       <c r="D40">
-        <v>60.530406143620652</v>
+        <v>60.558732130534267</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,10 +1002,10 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>64.581728358588208</v>
+        <v>64.58891296605546</v>
       </c>
       <c r="D41">
-        <v>61.613493849776631</v>
+        <v>61.630697194711239</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1016,10 +1016,10 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>85.830260746684885</v>
+        <v>85.838279146660142</v>
       </c>
       <c r="D42">
-        <v>81.417206149750513</v>
+        <v>81.436330762810186</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,10 +1030,10 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>89.196348299572293</v>
+        <v>89.207361876072227</v>
       </c>
       <c r="D43">
-        <v>85.192013866112333</v>
+        <v>85.218310714618781</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1044,10 +1044,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>67.337087540499155</v>
+        <v>67.347985966079477</v>
       </c>
       <c r="D44">
-        <v>63.413703156001418</v>
+        <v>63.43967656618085</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>54.465731610862115</v>
+        <v>54.472746821526727</v>
       </c>
       <c r="D45">
-        <v>52.793410739841491</v>
+        <v>52.810097886527949</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,10 +1072,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>60.729591748840804</v>
+        <v>60.737612803044989</v>
       </c>
       <c r="D46">
-        <v>61.664846361110747</v>
+        <v>61.684008110877393</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>68.820656172618385</v>
+        <v>68.83145865215505</v>
       </c>
       <c r="D47">
-        <v>67.721104065807765</v>
+        <v>67.746849060602699</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,10 +1100,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>104.55973180881766</v>
+        <v>104.56230909231985</v>
       </c>
       <c r="D48">
-        <v>93.835413129828211</v>
+        <v>93.841561087458203</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,10 +1114,10 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>100.80859829476078</v>
+        <v>100.82106674659708</v>
       </c>
       <c r="D49">
-        <v>94.661839154043989</v>
+        <v>94.691399980880973</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1128,10 +1128,10 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>99.219239150477847</v>
+        <v>99.234223998031609</v>
       </c>
       <c r="D50">
-        <v>93.355584602804299</v>
+        <v>93.389403546677244</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>99.955417642156377</v>
+        <v>99.967007681646422</v>
       </c>
       <c r="D51">
-        <v>93.593374635224663</v>
+        <v>93.619537854435407</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1156,10 +1156,10 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>112.15529017830897</v>
+        <v>112.17185780885319</v>
       </c>
       <c r="D52">
-        <v>104.09450708377373</v>
+        <v>104.13188998692254</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1170,10 +1170,10 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>107.02433534120017</v>
+        <v>107.03171968667128</v>
       </c>
       <c r="D53">
-        <v>95.963011228190126</v>
+        <v>95.979752621552365</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1184,10 +1184,10 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>82.952832263225659</v>
+        <v>82.960721575984024</v>
       </c>
       <c r="D54">
-        <v>76.231259476648546</v>
+        <v>76.249077872349972</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1198,10 +1198,10 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>74.087259113975904</v>
+        <v>74.098995628868792</v>
       </c>
       <c r="D55">
-        <v>70.38790848777758</v>
+        <v>70.414411253941225</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,10 +1212,10 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>97.388069733341226</v>
+        <v>97.396699273581945</v>
       </c>
       <c r="D56">
-        <v>89.319649650102647</v>
+        <v>89.339135399396469</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,10 +1226,10 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>82.597067382467614</v>
+        <v>82.608107303243187</v>
       </c>
       <c r="D57">
-        <v>78.630958771686593</v>
+        <v>78.65587821853363</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,10 +1240,10 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>174.97987896416129</v>
+        <v>174.99224774086284</v>
       </c>
       <c r="D58">
-        <v>157.87236558249435</v>
+        <v>157.90030349227098</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1254,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>163.69062555792365</v>
+        <v>163.70517792606978</v>
       </c>
       <c r="D59">
-        <v>149.66230639111683</v>
+        <v>149.69514381551471</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1268,10 +1268,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>123.75255158406054</v>
+        <v>123.76772292311455</v>
       </c>
       <c r="D60">
-        <v>116.18875251144605</v>
+        <v>116.22299254024315</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1282,10 +1282,10 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>106.25375635610425</v>
+        <v>106.27107879060475</v>
       </c>
       <c r="D61">
-        <v>100.58695658955781</v>
+        <v>100.62598934847722</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1296,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>104.11305996391158</v>
+        <v>104.13182671465928</v>
       </c>
       <c r="D62">
-        <v>99.52874514680569</v>
+        <v>99.571308490765603</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1310,10 +1310,10 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>86.317340184481154</v>
+        <v>86.329636826171679</v>
       </c>
       <c r="D63">
-        <v>80.766238094118464</v>
+        <v>80.794132859426597</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1324,10 +1324,10 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>76.827144763004867</v>
+        <v>76.843425173926875</v>
       </c>
       <c r="D64">
-        <v>74.598952935559808</v>
+        <v>74.635885452442892</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1338,10 +1338,10 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>81.828252932734316</v>
+        <v>81.842045099514024</v>
       </c>
       <c r="D65">
-        <v>79.137819556676035</v>
+        <v>79.169114628386296</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1352,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>80.086177989371052</v>
+        <v>80.100298287036424</v>
       </c>
       <c r="D66">
-        <v>77.973324157124296</v>
+        <v>78.005371315046062</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1366,10 +1366,10 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>91.959031942463312</v>
+        <v>91.968151640805544</v>
       </c>
       <c r="D67">
-        <v>88.844571670912757</v>
+        <v>88.865277640280027</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1380,10 +1380,10 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>99.855136705150642</v>
+        <v>99.871486801947071</v>
       </c>
       <c r="D68">
-        <v>94.063595658946483</v>
+        <v>94.100676060510608</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1394,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>104.36664787771022</v>
+        <v>104.3799144030003</v>
       </c>
       <c r="D69">
-        <v>98.664733330258343</v>
+        <v>98.694837109703073</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1408,10 +1408,10 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>119.30578907546735</v>
+        <v>119.32246799613887</v>
       </c>
       <c r="D70">
-        <v>113.83833312224765</v>
+        <v>113.87617666245835</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1422,10 +1422,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>115.09986438535445</v>
+        <v>115.11689618896469</v>
       </c>
       <c r="D71">
-        <v>113.14927168868829</v>
+        <v>113.18791986382824</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1436,10 +1436,10 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>121.28431013052545</v>
+        <v>121.30231727139063</v>
       </c>
       <c r="D72">
-        <v>114.39354444070537</v>
+        <v>114.43439248846485</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1450,10 +1450,10 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>119.62351106907303</v>
+        <v>119.650912124477</v>
       </c>
       <c r="D73">
-        <v>115.92769248591863</v>
+        <v>115.98980722981017</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>125.73106245818414</v>
+        <v>125.74509050269135</v>
       </c>
       <c r="D74">
-        <v>113.24457720211403</v>
+        <v>113.27802180499552</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1478,10 +1478,10 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>134.78343985076722</v>
+        <v>134.79193311474361</v>
       </c>
       <c r="D75">
-        <v>122.67594380351323</v>
+        <v>122.6962068545575</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,10 +1492,10 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>167.64610555865733</v>
+        <v>167.66774285195254</v>
       </c>
       <c r="D76">
-        <v>154.95955468795955</v>
+        <v>155.0111181696256</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1506,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>136.18032445197852</v>
+        <v>136.21120412991505</v>
       </c>
       <c r="D77">
-        <v>130.42518219938003</v>
+        <v>130.49876926619871</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1520,10 +1520,10 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <v>106.35711664666923</v>
+        <v>106.37803413685992</v>
       </c>
       <c r="D78">
-        <v>101.68553144014871</v>
+        <v>101.73539192318086</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1534,10 +1534,10 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <v>88.877977319214125</v>
+        <v>88.894691432896536</v>
       </c>
       <c r="D79">
-        <v>82.520732102872117</v>
+        <v>82.560563383811441</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1548,10 +1548,10 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>80.609110770278164</v>
+        <v>80.635059567811027</v>
       </c>
       <c r="D80">
-        <v>82.575349443494545</v>
+        <v>82.637177855357521</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1562,10 +1562,10 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>69.268743847012004</v>
+        <v>69.287322026450127</v>
       </c>
       <c r="D81">
-        <v>71.233924314748862</v>
+        <v>71.278191415885587</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1576,10 +1576,10 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>80.183241974017122</v>
+        <v>80.198351894632651</v>
       </c>
       <c r="D82">
-        <v>76.21134111173582</v>
+        <v>76.247358426521913</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1590,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>76.346098135732262</v>
+        <v>76.365209126162654</v>
       </c>
       <c r="D83">
-        <v>78.341260343250468</v>
+        <v>78.386804541345086</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1604,10 +1604,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>73.75827907899847</v>
+        <v>73.770080362747009</v>
       </c>
       <c r="D84">
-        <v>75.213098485821646</v>
+        <v>75.241238677578338</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1618,10 +1618,10 @@
         <v>12</v>
       </c>
       <c r="C85">
-        <v>70.2500671682334</v>
+        <v>70.266222052200703</v>
       </c>
       <c r="D85">
-        <v>69.908666923788871</v>
+        <v>69.947161437700785</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1632,10 +1632,10 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>72.309741577184667</v>
+        <v>72.327634508077566</v>
       </c>
       <c r="D86">
-        <v>76.73857317936411</v>
+        <v>76.781159366381615</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,10 +1646,10 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>72.525121479554841</v>
+        <v>72.543554015630363</v>
       </c>
       <c r="D87">
-        <v>79.58371614961932</v>
+        <v>79.627588119362059</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1660,10 +1660,10 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>77.926613693076959</v>
+        <v>77.941957597483253</v>
       </c>
       <c r="D88">
-        <v>74.999491809023539</v>
+        <v>75.03600589485724</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1674,10 +1674,10 @@
         <v>4</v>
       </c>
       <c r="C89">
-        <v>77.698363495382935</v>
+        <v>77.717233176990661</v>
       </c>
       <c r="D89">
-        <v>79.723988238753705</v>
+        <v>79.768900667797141</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1688,10 +1688,10 @@
         <v>5</v>
       </c>
       <c r="C90">
-        <v>89.315084567561271</v>
+        <v>89.326962402139515</v>
       </c>
       <c r="D90">
-        <v>94.409954414489363</v>
+        <v>94.438241070989719</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1702,10 +1702,10 @@
         <v>6</v>
       </c>
       <c r="C91">
-        <v>77.40301898321944</v>
+        <v>77.419368254039028</v>
       </c>
       <c r="D91">
-        <v>77.957102344324042</v>
+        <v>77.996027947968983</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1716,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="C92">
-        <v>74.673544963854397</v>
+        <v>74.688711569898743</v>
       </c>
       <c r="D92">
-        <v>71.903508990874144</v>
+        <v>71.939613721937903</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,10 +1730,10 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>68.738132843617521</v>
+        <v>68.752327314962571</v>
       </c>
       <c r="D93">
-        <v>67.776223128615541</v>
+        <v>67.810010825503767</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1744,10 +1744,10 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>78.018763878385386</v>
+        <v>78.029839591510196</v>
       </c>
       <c r="D94">
-        <v>73.996466537689543</v>
+        <v>74.02283791029636</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1758,10 +1758,10 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>89.019427169737554</v>
+        <v>89.039254325823848</v>
       </c>
       <c r="D95">
-        <v>88.924919673254664</v>
+        <v>88.972105007277889</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1772,10 +1772,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>84.088119405765951</v>
+        <v>84.103702616951125</v>
       </c>
       <c r="D96">
-        <v>80.418349941726021</v>
+        <v>80.455436407781903</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -1786,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>65.534687412832653</v>
+        <v>65.558151676111962</v>
       </c>
       <c r="D97">
-        <v>67.830049915286324</v>
+        <v>67.885880888706268</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -1800,10 +1800,10 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>57.932132734668023</v>
+        <v>57.949295276846811</v>
       </c>
       <c r="D98">
-        <v>64.166689127745329</v>
+        <v>64.206325831488115</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1814,10 +1814,10 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>55.190502279207614</v>
+        <v>55.204438885205136</v>
       </c>
       <c r="D99">
-        <v>58.05649702958101</v>
+        <v>58.088694408555298</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1828,10 +1828,10 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>53.230163818750391</v>
+        <v>53.244632894239267</v>
       </c>
       <c r="D100">
-        <v>56.270075370044871</v>
+        <v>56.303500503513312</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1842,10 +1842,10 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>70.848182630296321</v>
+        <v>70.876125919950397</v>
       </c>
       <c r="D101">
-        <v>76.240494034293292</v>
+        <v>76.305033946053811</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,10 +1856,10 @@
         <v>5</v>
       </c>
       <c r="C102">
-        <v>67.561729893188428</v>
+        <v>67.570059898875726</v>
       </c>
       <c r="D102">
-        <v>63.972457078376728</v>
+        <v>63.991709424755783</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -1870,10 +1870,10 @@
         <v>6</v>
       </c>
       <c r="C103">
-        <v>70.888367098278906</v>
+        <v>70.904812727931997</v>
       </c>
       <c r="D103">
-        <v>71.548257524602192</v>
+        <v>71.58625175209211</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -1884,10 +1884,10 @@
         <v>7</v>
       </c>
       <c r="C104">
-        <v>63.160722270877379</v>
+        <v>63.182374668204417</v>
       </c>
       <c r="D104">
-        <v>64.838891337845382</v>
+        <v>64.888900037881143</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -1898,10 +1898,10 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>61.60694260629802</v>
+        <v>61.627839995374359</v>
       </c>
       <c r="D105">
-        <v>63.04799211433685</v>
+        <v>63.096255539764456</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -1912,10 +1912,10 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>94.124452101836425</v>
+        <v>94.149054808169197</v>
       </c>
       <c r="D106">
-        <v>92.168077405229326</v>
+        <v>92.224900050288198</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -1926,10 +1926,10 @@
         <v>10</v>
       </c>
       <c r="C107">
-        <v>66.101432344048561</v>
+        <v>66.11988181768487</v>
       </c>
       <c r="D107">
-        <v>68.561358158494983</v>
+        <v>68.603982159925025</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -1940,10 +1940,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>66.61535421547633</v>
+        <v>66.62782648274019</v>
       </c>
       <c r="D108">
-        <v>64.4249797776489</v>
+        <v>64.453809190824629</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -1954,10 +1954,10 @@
         <v>12</v>
       </c>
       <c r="C109">
-        <v>61.919955127981979</v>
+        <v>61.942508867812869</v>
       </c>
       <c r="D109">
-        <v>66.703996860085169</v>
+        <v>66.756090642301444</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -1968,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>71.042569964742484</v>
+        <v>71.081187665071155</v>
       </c>
       <c r="D110">
-        <v>78.211500023748769</v>
+        <v>78.296739220393931</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -1982,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>59.404640328744492</v>
+        <v>59.429709257088696</v>
       </c>
       <c r="D111">
-        <v>61.187429396479764</v>
+        <v>61.242770561383857</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -1996,10 +1996,10 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>58.550179614006531</v>
+        <v>58.571954495277531</v>
       </c>
       <c r="D112">
-        <v>61.397609923702269</v>
+        <v>61.445679029508213</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2010,10 +2010,10 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>71.837861032543373</v>
+        <v>71.861292676974557</v>
       </c>
       <c r="D113">
-        <v>73.983927084819541</v>
+        <v>74.035657975816022</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2024,10 +2024,10 @@
         <v>5</v>
       </c>
       <c r="C114">
-        <v>63.012208523166144</v>
+        <v>63.027152668155942</v>
       </c>
       <c r="D114">
-        <v>62.936689450801381</v>
+        <v>62.969694549282828</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2038,10 +2038,10 @@
         <v>6</v>
       </c>
       <c r="C115">
-        <v>72.472970194261066</v>
+        <v>72.491506262017083</v>
       </c>
       <c r="D115">
-        <v>72.614082108377971</v>
+        <v>72.655013660381996</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2052,10 +2052,10 @@
         <v>7</v>
       </c>
       <c r="C116">
-        <v>69.506667399048865</v>
+        <v>69.528722554616039</v>
       </c>
       <c r="D116">
-        <v>71.118156042118088</v>
+        <v>71.166843424953214</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2066,10 +2066,10 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>60.574740907082372</v>
+        <v>60.602896254321614</v>
       </c>
       <c r="D117">
-        <v>64.522915235913459</v>
+        <v>64.578729016920065</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2080,10 +2080,10 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>58.345648531396868</v>
+        <v>58.355460008940362</v>
       </c>
       <c r="D118">
-        <v>57.073073029955118</v>
+        <v>57.094747292957045</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2094,10 +2094,10 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>61.316878770574689</v>
+        <v>61.344821590381081</v>
       </c>
       <c r="D119">
-        <v>66.826350508304245</v>
+        <v>66.888032310552973</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2108,10 +2108,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>58.805257143355391</v>
+        <v>58.828569701999193</v>
       </c>
       <c r="D120">
-        <v>64.208608594907702</v>
+        <v>64.260074784264049</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2122,10 +2122,10 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>58.009618089125603</v>
+        <v>58.034947703199606</v>
       </c>
       <c r="D121">
-        <v>61.84574688195142</v>
+        <v>61.901662502263157</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2136,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>64.414585695998497</v>
+        <v>64.427837819372513</v>
       </c>
       <c r="D122">
-        <v>65.108583796893569</v>
+        <v>65.136011029792257</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2150,10 +2150,10 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>54.674130007736608</v>
+        <v>54.692299747103014</v>
       </c>
       <c r="D123">
-        <v>57.823621395465985</v>
+        <v>57.861224848914354</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2164,10 +2164,10 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>65.016104897347788</v>
+        <v>65.043651912496827</v>
       </c>
       <c r="D124">
-        <v>67.474205848625331</v>
+        <v>67.531201171796368</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2178,10 +2178,10 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>60.501798203939529</v>
+        <v>60.520566312705988</v>
       </c>
       <c r="D125">
-        <v>64.483344980321007</v>
+        <v>64.522185158207208</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,10 +2192,10 @@
         <v>5</v>
       </c>
       <c r="C126">
-        <v>57.171148197896208</v>
+        <v>57.1880679975921</v>
       </c>
       <c r="D126">
-        <v>57.175135412275807</v>
+        <v>57.210148200481619</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2206,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="C127">
-        <v>56.796051894830697</v>
+        <v>56.816366381682535</v>
       </c>
       <c r="D127">
-        <v>57.431228224580167</v>
+        <v>57.473263948719698</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2220,10 +2220,10 @@
         <v>7</v>
       </c>
       <c r="C128">
-        <v>47.862269851633783</v>
+        <v>47.889177802690583</v>
       </c>
       <c r="D128">
-        <v>52.319683784193963</v>
+        <v>52.375349096367209</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2234,10 +2234,10 @@
         <v>8</v>
       </c>
       <c r="C129">
-        <v>78.440278009608676</v>
+        <v>78.463197381862173</v>
       </c>
       <c r="D129">
-        <v>76.540727512646001</v>
+        <v>76.588155335833633</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,10 +2248,10 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>100.10882161528603</v>
+        <v>100.13580402024451</v>
       </c>
       <c r="D130">
-        <v>94.288490351364644</v>
+        <v>94.344330056621757</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2262,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>79.824943643956843</v>
+        <v>79.85012269319428</v>
       </c>
       <c r="D131">
-        <v>79.065684966297169</v>
+        <v>79.117789629571774</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2276,10 +2276,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>83.516857092883157</v>
+        <v>83.538191077522796</v>
       </c>
       <c r="D132">
-        <v>79.250078150618961</v>
+        <v>79.294225938876579</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2290,10 +2290,10 @@
         <v>12</v>
       </c>
       <c r="C133">
-        <v>97.078422092203823</v>
+        <v>97.116858987909481</v>
       </c>
       <c r="D133">
-        <v>99.514556013871371</v>
+        <v>99.594075602700642</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2304,10 +2304,10 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>134.78486125804284</v>
+        <v>134.8296422865001</v>
       </c>
       <c r="D134">
-        <v>132.68667290929494</v>
+        <v>132.76960131320854</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2318,10 +2318,10 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <v>99.345334074838135</v>
+        <v>99.375012514368933</v>
       </c>
       <c r="D135">
-        <v>97.703352570874017</v>
+        <v>97.758319638716401</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2332,10 +2332,10 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>120.2936027434418</v>
+        <v>120.36782465363814</v>
       </c>
       <c r="D136">
-        <v>129.51374236896649</v>
+        <v>129.65116999232424</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2346,10 +2346,10 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>92.261515293027387</v>
+        <v>92.311522858488274</v>
       </c>
       <c r="D137">
-        <v>98.860753229551605</v>
+        <v>98.95335063460783</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2360,10 +2360,10 @@
         <v>5</v>
       </c>
       <c r="C138">
-        <v>78.585100728852751</v>
+        <v>78.621999706099643</v>
       </c>
       <c r="D138">
-        <v>81.662523937009183</v>
+        <v>81.730853942189697</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2374,10 +2374,10 @@
         <v>6</v>
       </c>
       <c r="C139">
-        <v>86.397247844668101</v>
+        <v>86.431595835410931</v>
       </c>
       <c r="D139">
-        <v>90.895900099768269</v>
+        <v>90.959517261619538</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2388,10 +2388,10 @@
         <v>7</v>
       </c>
       <c r="C140">
-        <v>96.863402224398328</v>
+        <v>96.932217244775771</v>
       </c>
       <c r="D140">
-        <v>108.06452536392214</v>
+        <v>108.19194283693473</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2402,10 +2402,10 @@
         <v>8</v>
       </c>
       <c r="C141">
-        <v>90.516831405107013</v>
+        <v>90.586944263792134</v>
       </c>
       <c r="D141">
-        <v>98.977475968373753</v>
+        <v>99.107293947332138</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2416,10 +2416,10 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>162.49334575406118</v>
+        <v>162.55008346347645</v>
       </c>
       <c r="D142">
-        <v>159.39998120074867</v>
+        <v>159.50504239959145</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2430,10 +2430,10 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>208.42773192468255</v>
+        <v>208.50990148476842</v>
       </c>
       <c r="D143">
-        <v>209.13390754880692</v>
+        <v>209.28606703380117</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>143.97650354150855</v>
+        <v>144.04532983459791</v>
       </c>
       <c r="D144">
-        <v>146.37489405935625</v>
+        <v>146.50234035898521</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2458,10 +2458,10 @@
         <v>12</v>
       </c>
       <c r="C145">
-        <v>144.74292777761684</v>
+        <v>144.81124465175793</v>
       </c>
       <c r="D145">
-        <v>148.59736388905353</v>
+        <v>148.72386432197706</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2472,10 +2472,10 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>146.12913253011274</v>
+        <v>146.21370989891858</v>
       </c>
       <c r="D146">
-        <v>146.47059023277777</v>
+        <v>146.61916855908365</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2486,10 +2486,10 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <v>147.71636470574558</v>
+        <v>147.7813088727105</v>
       </c>
       <c r="D147">
-        <v>144.33844474161623</v>
+        <v>144.45254603137005</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -2500,10 +2500,10 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>132.59668141179671</v>
+        <v>132.66995619446729</v>
       </c>
       <c r="D148">
-        <v>136.40480188198728</v>
+        <v>136.53352740277384</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2514,10 +2514,10 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>102.6340124076725</v>
+        <v>102.68521694590871</v>
       </c>
       <c r="D149">
-        <v>104.76477479702861</v>
+        <v>104.85473267745004</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2528,10 +2528,10 @@
         <v>5</v>
       </c>
       <c r="C150">
-        <v>103.74117229661498</v>
+        <v>103.77731344678871</v>
       </c>
       <c r="D150">
-        <v>100.53532982217756</v>
+        <v>100.59883206137975</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -2542,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="C151">
-        <v>117.74142077166428</v>
+        <v>117.85497888622257</v>
       </c>
       <c r="D151">
-        <v>130.62224691545953</v>
+        <v>130.82173873368339</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -2556,10 +2556,10 @@
         <v>7</v>
       </c>
       <c r="C152">
-        <v>106.91350600011772</v>
+        <v>106.99861536877442</v>
       </c>
       <c r="D152">
-        <v>117.83062431831829</v>
+        <v>117.98013429551442</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -2570,10 +2570,10 @@
         <v>8</v>
       </c>
       <c r="C153">
-        <v>103.47915892657169</v>
+        <v>103.55615350207776</v>
       </c>
       <c r="D153">
-        <v>109.30405170569459</v>
+        <v>109.43930800850262</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -2584,10 +2584,10 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>106.75591459233333</v>
+        <v>106.87609415475221</v>
       </c>
       <c r="D154">
-        <v>119.62300304035888</v>
+        <v>119.83411536491056</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -2598,10 +2598,10 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>92.294752885617214</v>
+        <v>92.371311286372091</v>
       </c>
       <c r="D155">
-        <v>98.08124681223606</v>
+        <v>98.21574209666818</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -2612,10 +2612,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>105.86252756260312</v>
+        <v>105.94022927034759</v>
       </c>
       <c r="D156">
-        <v>109.37484154858373</v>
+        <v>109.51134232768956</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -2626,10 +2626,10 @@
         <v>12</v>
       </c>
       <c r="C157">
-        <v>103.00167098191149</v>
+        <v>103.06707522029565</v>
       </c>
       <c r="D157">
-        <v>105.70674943033688</v>
+        <v>105.8216448535447</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -2640,10 +2640,10 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>118.32667775221947</v>
+        <v>118.40906810200008</v>
       </c>
       <c r="D158">
-        <v>120.68329257924125</v>
+        <v>120.82213755523738</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -2654,10 +2654,10 @@
         <v>2</v>
       </c>
       <c r="C159">
-        <v>115.0724391334368</v>
+        <v>115.14575790117331</v>
       </c>
       <c r="D159">
-        <v>120.50017948321852</v>
+        <v>120.62374088708437</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -2668,10 +2668,10 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>115.27599203457804</v>
+        <v>115.37551282428605</v>
       </c>
       <c r="D160">
-        <v>121.48429650036691</v>
+        <v>121.65199970058633</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -2682,10 +2682,10 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>109.56238378786652</v>
+        <v>109.62809520501062</v>
       </c>
       <c r="D161">
-        <v>109.31330132648142</v>
+        <v>109.4240408827375</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -2696,10 +2696,10 @@
         <v>5</v>
       </c>
       <c r="C162">
-        <v>147.85689118525445</v>
+        <v>147.9308076757253</v>
       </c>
       <c r="D162">
-        <v>143.27572903516096</v>
+        <v>143.40030447978191</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -2710,10 +2710,10 @@
         <v>6</v>
       </c>
       <c r="C163">
-        <v>138.95845063175713</v>
+        <v>139.05418844435559</v>
       </c>
       <c r="D163">
-        <v>142.08155339623906</v>
+        <v>142.24290742680066</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -2724,10 +2724,10 @@
         <v>7</v>
       </c>
       <c r="C164">
-        <v>149.23391679864835</v>
+        <v>149.32207484249966</v>
       </c>
       <c r="D164">
-        <v>146.92097134144365</v>
+        <v>147.06953387778725</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -2738,10 +2738,10 @@
         <v>8</v>
       </c>
       <c r="C165">
-        <v>123.84146018807994</v>
+        <v>123.90725413824791</v>
       </c>
       <c r="D165">
-        <v>121.91428222584564</v>
+        <v>122.02515913357033</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -2752,10 +2752,10 @@
         <v>9</v>
       </c>
       <c r="C166">
-        <v>133.32675470376057</v>
+        <v>133.38351906356752</v>
       </c>
       <c r="D166">
-        <v>127.41718633757858</v>
+        <v>127.51285481080329</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -2766,10 +2766,10 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>127.37204142838246</v>
+        <v>127.43972867719292</v>
       </c>
       <c r="D167">
-        <v>123.41117463736977</v>
+        <v>123.52524353653872</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -2780,10 +2780,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>131.23561172571672</v>
+        <v>131.30009666965734</v>
       </c>
       <c r="D168">
-        <v>127.71060648771005</v>
+        <v>127.8192903329097</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -2794,10 +2794,10 @@
         <v>12</v>
       </c>
       <c r="C169">
-        <v>135.43802934580799</v>
+        <v>135.5249864850025</v>
       </c>
       <c r="D169">
-        <v>139.88511479271352</v>
+        <v>140.03165491278358</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -2808,10 +2808,10 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>115.40600302730304</v>
+        <v>115.52693121099483</v>
       </c>
       <c r="D170">
-        <v>124.46223119194165</v>
+        <v>124.65272723983915</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -2822,10 +2822,10 @@
         <v>2</v>
       </c>
       <c r="C171">
-        <v>96.918724092266544</v>
+        <v>96.964745423395513</v>
       </c>
       <c r="D171">
-        <v>97.609074414287363</v>
+        <v>97.681569421163857</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -2836,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>131.26055224718874</v>
+        <v>131.3547450671152</v>
       </c>
       <c r="D172">
-        <v>132.07425898709405</v>
+        <v>132.22263957321127</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -2850,10 +2850,10 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>120.01671655619852</v>
+        <v>120.12214190143386</v>
       </c>
       <c r="D173">
-        <v>124.32353383297323</v>
+        <v>124.48960967112373</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -2864,10 +2864,10 @@
         <v>5</v>
       </c>
       <c r="C174">
-        <v>94.765933882720319</v>
+        <v>94.823739155250095</v>
       </c>
       <c r="D174">
-        <v>94.728837446825054</v>
+        <v>94.819902219294562</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -2878,10 +2878,10 @@
         <v>6</v>
       </c>
       <c r="C175">
-        <v>125.03289728115614</v>
+        <v>125.11295272796939</v>
       </c>
       <c r="D175">
-        <v>124.33641185571643</v>
+        <v>124.46252963080987</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -2892,10 +2892,10 @@
         <v>7</v>
       </c>
       <c r="C176">
-        <v>154.1589057164216</v>
+        <v>154.23676317759197</v>
       </c>
       <c r="D176">
-        <v>151.27106895349266</v>
+        <v>151.39372681479594</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -2906,10 +2906,10 @@
         <v>8</v>
       </c>
       <c r="C177">
-        <v>217.5761701960688</v>
+        <v>217.68556592612867</v>
       </c>
       <c r="D177">
-        <v>215.69078480798211</v>
+        <v>215.86311677389253</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -2920,10 +2920,10 @@
         <v>9</v>
       </c>
       <c r="C178">
-        <v>194.98244962253838</v>
+        <v>195.09360108164151</v>
       </c>
       <c r="D178">
-        <v>194.69595685172322</v>
+        <v>194.87105315233762</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -2934,10 +2934,10 @@
         <v>10</v>
       </c>
       <c r="C179">
-        <v>167.56047105644535</v>
+        <v>167.68349123396976</v>
       </c>
       <c r="D179">
-        <v>173.3647525582189</v>
+        <v>173.55853855618329</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -2948,10 +2948,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>192.27716826540066</v>
+        <v>192.40340238198755</v>
       </c>
       <c r="D180">
-        <v>195.36146091517233</v>
+        <v>195.56031404539314</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -2962,10 +2962,10 @@
         <v>12</v>
       </c>
       <c r="C181">
-        <v>179.0044454064849</v>
+        <v>179.12894643902976</v>
       </c>
       <c r="D181">
-        <v>186.40770381943642</v>
+        <v>186.60382047126404</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -2976,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>155.25108259973547</v>
+        <v>155.35598984340595</v>
       </c>
       <c r="D182">
-        <v>158.51575904452685</v>
+        <v>158.67060514096315</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -2990,10 +2990,10 @@
         <v>2</v>
       </c>
       <c r="C183">
-        <v>142.08266213548706</v>
+        <v>142.20391709602424</v>
       </c>
       <c r="D183">
-        <v>148.37416056820703</v>
+        <v>148.55308845317953</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3004,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="C184">
-        <v>133.45229965226187</v>
+        <v>133.57146019165384</v>
       </c>
       <c r="D184">
-        <v>146.90345968254096</v>
+        <v>147.07931936130018</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3018,10 +3018,10 @@
         <v>4</v>
       </c>
       <c r="C185">
-        <v>130.90887714630696</v>
+        <v>131.01891039309612</v>
       </c>
       <c r="D185">
-        <v>136.53722408793132</v>
+        <v>136.69962070450498</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3032,10 +3032,10 @@
         <v>5</v>
       </c>
       <c r="C186">
-        <v>160.49990345878572</v>
+        <v>160.61588120457785</v>
       </c>
       <c r="D186">
-        <v>165.60885493746778</v>
+        <v>165.78003104131801</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3046,10 +3046,10 @@
         <v>6</v>
       </c>
       <c r="C187">
-        <v>184.0280770063697</v>
+        <v>184.1491743545555</v>
       </c>
       <c r="D187">
-        <v>188.34838830789465</v>
+        <v>188.52712704437315</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3060,10 +3060,10 @@
         <v>7</v>
       </c>
       <c r="C188">
-        <v>153.32950035987707</v>
+        <v>153.43437486018883</v>
       </c>
       <c r="D188">
-        <v>153.02547232976471</v>
+        <v>153.18026056200284</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3074,10 +3074,10 @@
         <v>8</v>
       </c>
       <c r="C189">
-        <v>117.37868716977269</v>
+        <v>117.4472925302037</v>
       </c>
       <c r="D189">
-        <v>118.65562105857569</v>
+        <v>118.75687835023851</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3088,10 +3088,10 @@
         <v>9</v>
       </c>
       <c r="C190">
-        <v>154.43914843288744</v>
+        <v>154.54409103525293</v>
       </c>
       <c r="D190">
-        <v>156.13753518310972</v>
+        <v>156.29241824621417</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3102,10 +3102,10 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>151.92109759870831</v>
+        <v>152.01963044346002</v>
       </c>
       <c r="D191">
-        <v>151.68728574952516</v>
+        <v>151.83270283909468</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3116,10 +3116,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>166.7545363291257</v>
+        <v>166.86110489715719</v>
       </c>
       <c r="D192">
-        <v>161.07032127508435</v>
+        <v>161.22759281876458</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3130,10 +3130,10 @@
         <v>12</v>
       </c>
       <c r="C193">
-        <v>171.19502189127826</v>
+        <v>171.31880003627077</v>
       </c>
       <c r="D193">
-        <v>170.08315063961408</v>
+        <v>170.26582399887204</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3144,10 +3144,10 @@
         <v>1</v>
       </c>
       <c r="C194">
-        <v>168.29070311061349</v>
+        <v>168.41548367276397</v>
       </c>
       <c r="D194">
-        <v>165.99640599804644</v>
+        <v>166.16756384046681</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -3158,10 +3158,10 @@
         <v>2</v>
       </c>
       <c r="C195">
-        <v>123.78857703481367</v>
+        <v>123.86940533838967</v>
       </c>
       <c r="D195">
-        <v>123.439959189748</v>
+        <v>123.55080515867991</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -3172,10 +3172,10 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>146.24433943474978</v>
+        <v>146.3311288361657</v>
       </c>
       <c r="D196">
-        <v>145.29097520340432</v>
+        <v>145.41001172884808</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -3186,10 +3186,10 @@
         <v>4</v>
       </c>
       <c r="C197">
-        <v>137.12254484951572</v>
+        <v>137.23729292255791</v>
       </c>
       <c r="D197">
-        <v>139.84550967555015</v>
+        <v>140.00289303080058</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -3200,10 +3200,10 @@
         <v>5</v>
       </c>
       <c r="C198">
-        <v>108.75373183615814</v>
+        <v>108.82230244837918</v>
       </c>
       <c r="D198">
-        <v>108.47485993458308</v>
+        <v>108.56891237443489</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -3214,10 +3214,10 @@
         <v>6</v>
       </c>
       <c r="C199">
-        <v>128.73862241344608</v>
+        <v>128.83709621512182</v>
       </c>
       <c r="D199">
-        <v>130.36285769547843</v>
+        <v>130.49792961060695</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3228,10 +3228,10 @@
         <v>7</v>
       </c>
       <c r="C200">
-        <v>109.02416425853636</v>
+        <v>109.09725098847071</v>
       </c>
       <c r="D200">
-        <v>108.63298763770466</v>
+        <v>108.73323945324799</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -3242,10 +3242,10 @@
         <v>8</v>
       </c>
       <c r="C201">
-        <v>120.4045234819062</v>
+        <v>120.50127882954666</v>
       </c>
       <c r="D201">
-        <v>127.53159535850693</v>
+        <v>127.66430267638727</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -3256,10 +3256,10 @@
         <v>9</v>
       </c>
       <c r="C202">
-        <v>139.64974757931009</v>
+        <v>139.74652110816331</v>
       </c>
       <c r="D202">
-        <v>141.5032166762949</v>
+        <v>141.63594997551567</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -3270,10 +3270,10 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>169.95023022474214</v>
+        <v>170.09708461097773</v>
       </c>
       <c r="D203">
-        <v>167.45771110073153</v>
+        <v>167.65911445735881</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -3284,10 +3284,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>104.92164445377676</v>
+        <v>105.03745540457595</v>
       </c>
       <c r="D204">
-        <v>108.1519240515667</v>
+        <v>108.31065508283851</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -3298,10 +3298,10 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>124.21560643702189</v>
+        <v>124.33466798631018</v>
       </c>
       <c r="D205">
-        <v>128.31047043471705</v>
+        <v>128.47376247649453</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -3312,10 +3312,10 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>116.18576594418155</v>
+        <v>116.29103785331415</v>
       </c>
       <c r="D206">
-        <v>119.75381988829183</v>
+        <v>119.89245168343595</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -3326,10 +3326,10 @@
         <v>2</v>
       </c>
       <c r="C207">
-        <v>102.02546626983768</v>
+        <v>102.09728451186321</v>
       </c>
       <c r="D207">
-        <v>100.94560424231078</v>
+        <v>101.04014897477238</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -3340,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="C208">
-        <v>115.85629209552508</v>
+        <v>115.95797488633711</v>
       </c>
       <c r="D208">
-        <v>114.65064009432571</v>
+        <v>114.78452366994939</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -3354,10 +3354,10 @@
         <v>4</v>
       </c>
       <c r="C209">
-        <v>111.67706713432922</v>
+        <v>111.80882259599215</v>
       </c>
       <c r="D209">
-        <v>118.52201468209772</v>
+        <v>118.69549673877367</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -3368,10 +3368,10 @@
         <v>5</v>
       </c>
       <c r="C210">
-        <v>107.74230305526088</v>
+        <v>107.82104756355945</v>
       </c>
       <c r="D210">
-        <v>111.06500711720922</v>
+        <v>111.16869316165112</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -3382,10 +3382,10 @@
         <v>6</v>
       </c>
       <c r="C211">
-        <v>92.19135853489955</v>
+        <v>92.298959619292404</v>
       </c>
       <c r="D211">
-        <v>96.517383347751988</v>
+        <v>96.659065230506513</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -3396,10 +3396,10 @@
         <v>7</v>
       </c>
       <c r="C212">
-        <v>95.333819734966994</v>
+        <v>95.430018382626855</v>
       </c>
       <c r="D212">
-        <v>99.946504088544842</v>
+        <v>100.073175695144</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -3410,10 +3410,10 @@
         <v>8</v>
       </c>
       <c r="C213">
-        <v>97.761398630377627</v>
+        <v>97.840312727015089</v>
       </c>
       <c r="D213">
-        <v>105.14316817814962</v>
+        <v>105.24707763906315</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -3424,10 +3424,10 @@
         <v>9</v>
       </c>
       <c r="C214">
-        <v>122.89568370580676</v>
+        <v>123.00543201777047</v>
       </c>
       <c r="D214">
-        <v>128.65000992265774</v>
+        <v>128.79451637816948</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -3438,10 +3438,10 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>113.37876845095079</v>
+        <v>113.48031107608809</v>
       </c>
       <c r="D215">
-        <v>114.74565570885224</v>
+        <v>114.87934289053247</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -3452,10 +3452,10 @@
         <v>11</v>
       </c>
       <c r="C216">
-        <v>120.59650074767065</v>
+        <v>120.71869686042098</v>
       </c>
       <c r="D216">
-        <v>128.60805956698039</v>
+        <v>128.76894802970023</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -3466,10 +3466,10 @@
         <v>12</v>
       </c>
       <c r="C217">
-        <v>111.7033354249328</v>
+        <v>111.76323693590915</v>
       </c>
       <c r="D217">
-        <v>113.9373971650104</v>
+        <v>114.0162687994992</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -3480,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>130.13848010385647</v>
+        <v>130.24854846969785</v>
       </c>
       <c r="D218">
-        <v>135.17716036493891</v>
+        <v>135.30982019585232</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -3494,10 +3494,10 @@
         <v>2</v>
       </c>
       <c r="C219">
-        <v>116.34505324373706</v>
+        <v>116.4518856799972</v>
       </c>
       <c r="D219">
-        <v>122.73785169147681</v>
+        <v>122.86659796792641</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -3508,10 +3508,10 @@
         <v>3</v>
       </c>
       <c r="C220">
-        <v>113.28078096263278</v>
+        <v>113.41134485523457</v>
       </c>
       <c r="D220">
-        <v>117.91761798134662</v>
+        <v>118.07497270367075</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -3522,10 +3522,10 @@
         <v>4</v>
       </c>
       <c r="C221">
-        <v>102.11076161719903</v>
+        <v>102.18254353002798</v>
       </c>
       <c r="D221">
-        <v>100.84336584022617</v>
+        <v>100.92988326162804</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -3536,10 +3536,10 @@
         <v>5</v>
       </c>
       <c r="C222">
-        <v>105.07026944018661</v>
+        <v>105.14688925122555</v>
       </c>
       <c r="D222">
-        <v>101.51934297964559</v>
+        <v>101.61169178213926</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -3550,10 +3550,10 @@
         <v>6</v>
       </c>
       <c r="C223">
-        <v>120.20207957368575</v>
+        <v>120.30934957300931</v>
       </c>
       <c r="D223">
-        <v>118.75307256347641</v>
+        <v>118.88235866770447</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -3564,10 +3564,10 @@
         <v>7</v>
       </c>
       <c r="C224">
-        <v>124.39056485420913</v>
+        <v>124.54062010634929</v>
       </c>
       <c r="D224">
-        <v>122.9862860317201</v>
+        <v>123.16713960670498</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -3578,10 +3578,10 @@
         <v>8</v>
       </c>
       <c r="C225">
-        <v>120.43912375635313</v>
+        <v>120.50670666002878</v>
       </c>
       <c r="D225">
-        <v>117.20719178856234</v>
+        <v>117.28865135957007</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -3592,10 +3592,10 @@
         <v>9</v>
       </c>
       <c r="C226">
-        <v>154.38688894567193</v>
+        <v>154.49521023188797</v>
       </c>
       <c r="D226">
-        <v>153.86747623339252</v>
+        <v>153.99801352251413</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -3606,10 +3606,10 @@
         <v>10</v>
       </c>
       <c r="C227">
-        <v>116.59303849482404</v>
+        <v>116.69119060067885</v>
       </c>
       <c r="D227">
-        <v>115.42365274060595</v>
+        <v>115.54192176193561</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -3620,10 +3620,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>106.40494115649295</v>
+        <v>106.51288492565962</v>
       </c>
       <c r="D228">
-        <v>106.08775546001183</v>
+        <v>106.21783277330299</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -3634,10 +3634,10 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <v>113.39581596190089</v>
+        <v>113.50201931239779</v>
       </c>
       <c r="D229">
-        <v>116.95075551753467</v>
+        <v>117.07873781228277</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -3648,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="C230">
-        <v>145.23792398334345</v>
+        <v>145.37920230967987</v>
       </c>
       <c r="D230">
-        <v>141.01680038562253</v>
+        <v>141.19047095206878</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -3662,10 +3662,10 @@
         <v>2</v>
       </c>
       <c r="C231">
-        <v>148.19198685644969</v>
+        <v>148.31181265936834</v>
       </c>
       <c r="D231">
-        <v>145.80781405085978</v>
+        <v>145.95507910881673</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -3676,10 +3676,10 @@
         <v>3</v>
       </c>
       <c r="C232">
-        <v>160.6088582022262</v>
+        <v>160.78085179706758</v>
       </c>
       <c r="D232">
-        <v>162.39101664092726</v>
+        <v>162.60246569158912</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -3690,10 +3690,10 @@
         <v>4</v>
       </c>
       <c r="C233">
-        <v>143.50946451276468</v>
+        <v>143.69237745572056</v>
       </c>
       <c r="D233">
-        <v>146.44692975665123</v>
+        <v>146.67188398372116</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -3704,10 +3704,10 @@
         <v>5</v>
       </c>
       <c r="C234">
-        <v>127.21963700806927</v>
+        <v>127.34963855128508</v>
       </c>
       <c r="D234">
-        <v>123.80900235972506</v>
+        <v>123.96893835227262</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -3718,10 +3718,10 @@
         <v>6</v>
       </c>
       <c r="C235">
-        <v>231.4331324128521</v>
+        <v>231.5786547742976</v>
       </c>
       <c r="D235">
-        <v>220.9011973956959</v>
+        <v>221.08016291016148</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -3732,10 +3732,10 @@
         <v>7</v>
       </c>
       <c r="C236">
-        <v>204.80886584652018</v>
+        <v>204.93329827346255</v>
       </c>
       <c r="D236">
-        <v>189.06662321190365</v>
+        <v>189.21964952423232</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -3746,10 +3746,10 @@
         <v>8</v>
       </c>
       <c r="C237">
-        <v>135.71287445867233</v>
+        <v>135.84187546090541</v>
       </c>
       <c r="D237">
-        <v>136.55674538611319</v>
+        <v>136.71528670390444</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -3760,10 +3760,10 @@
         <v>9</v>
       </c>
       <c r="C238">
-        <v>136.88022780718921</v>
+        <v>137.04393565728878</v>
       </c>
       <c r="D238">
-        <v>139.2049211818659</v>
+        <v>139.40608799538697</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -3774,10 +3774,10 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>126.97177547173558</v>
+        <v>127.09036508753302</v>
       </c>
       <c r="D239">
-        <v>122.44248069796846</v>
+        <v>122.58815936098233</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -3788,10 +3788,10 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <v>229.85161590178518</v>
+        <v>229.99944598714194</v>
       </c>
       <c r="D240">
-        <v>215.23877637931659</v>
+        <v>215.42035190486612</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -3802,10 +3802,10 @@
         <v>12</v>
       </c>
       <c r="C241">
-        <v>186.11874784947065</v>
+        <v>186.26373316420063</v>
       </c>
       <c r="D241">
-        <v>186.81061137069716</v>
+        <v>186.98870812761589</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -3816,10 +3816,10 @@
         <v>1</v>
       </c>
       <c r="C242">
-        <v>249.55618465856304</v>
+        <v>249.90547064880647</v>
       </c>
       <c r="D242">
-        <v>255.51004942859288</v>
+        <v>255.9307409329231</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -3830,10 +3830,10 @@
         <v>2</v>
       </c>
       <c r="C243">
-        <v>187.1455280418584</v>
+        <v>187.34628011736828</v>
       </c>
       <c r="D243">
-        <v>189.80654874337327</v>
+        <v>190.04857620818973</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -3844,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="C244">
-        <v>239.27235844108125</v>
+        <v>239.6698350215654</v>
       </c>
       <c r="D244">
-        <v>250.34469633390725</v>
+        <v>250.82380329248235</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -3858,10 +3858,10 @@
         <v>4</v>
       </c>
       <c r="C245">
-        <v>178.27306864345562</v>
+        <v>178.47117692420167</v>
       </c>
       <c r="D245">
-        <v>177.91982206757712</v>
+        <v>178.15871664219137</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -3872,10 +3872,10 @@
         <v>5</v>
       </c>
       <c r="C246">
-        <v>145.54034396392578</v>
+        <v>145.68888244691274</v>
       </c>
       <c r="D246">
-        <v>142.76878879216349</v>
+        <v>142.94797700848233</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -3886,10 +3886,10 @@
         <v>6</v>
       </c>
       <c r="C247">
-        <v>173.77420872324979</v>
+        <v>174.03343301642514</v>
       </c>
       <c r="D247">
-        <v>175.67241106776936</v>
+        <v>175.98487805638771</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -3900,10 +3900,10 @@
         <v>7</v>
       </c>
       <c r="C248">
-        <v>167.66063491845625</v>
+        <v>167.92057792029146</v>
       </c>
       <c r="D248">
-        <v>172.44586461426155</v>
+        <v>172.75917517256553</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -3914,10 +3914,10 @@
         <v>8</v>
       </c>
       <c r="C249">
-        <v>141.7112700380448</v>
+        <v>141.89896514309876</v>
       </c>
       <c r="D249">
-        <v>141.88668046365328</v>
+        <v>142.11285453547455</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -3928,10 +3928,10 @@
         <v>9</v>
       </c>
       <c r="C250">
-        <v>159.73973255349057</v>
+        <v>159.97501047541456</v>
       </c>
       <c r="D250">
-        <v>163.59858967421354</v>
+        <v>163.8820779579743</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -3942,10 +3942,10 @@
         <v>10</v>
       </c>
       <c r="C251">
-        <v>145.68529196149578</v>
+        <v>145.84818462413446</v>
       </c>
       <c r="D251">
-        <v>149.9161750754167</v>
+        <v>150.11227440082453</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -3956,10 +3956,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>162.09633702375046</v>
+        <v>162.33184614241455</v>
       </c>
       <c r="D252">
-        <v>168.15917722574528</v>
+        <v>168.44268536550913</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -3970,10 +3970,10 @@
         <v>12</v>
       </c>
       <c r="C253">
-        <v>150.15936926452153</v>
+        <v>150.35055060066691</v>
       </c>
       <c r="D253">
-        <v>155.66810307977951</v>
+        <v>155.89844806900106</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -3984,10 +3984,10 @@
         <v>1</v>
       </c>
       <c r="C254">
-        <v>180.54841926253272</v>
+        <v>180.86849849488374</v>
       </c>
       <c r="D254">
-        <v>180.28445150663322</v>
+        <v>180.65872953862902</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -3998,10 +3998,10 @@
         <v>2</v>
       </c>
       <c r="C255">
-        <v>128.05544746810688</v>
+        <v>128.23570433311107</v>
       </c>
       <c r="D255">
-        <v>130.8782900577072</v>
+        <v>131.08920991724941</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4012,10 +4012,10 @@
         <v>3</v>
       </c>
       <c r="C256">
-        <v>184.49750295754077</v>
+        <v>184.80405608075677</v>
       </c>
       <c r="D256">
-        <v>181.63870085487903</v>
+        <v>181.99727795930602</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4026,10 +4026,10 @@
         <v>4</v>
       </c>
       <c r="C257">
-        <v>167.61096433266692</v>
+        <v>167.90213578096532</v>
       </c>
       <c r="D257">
-        <v>173.65400126622623</v>
+        <v>173.99474325260817</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4040,10 +4040,10 @@
         <v>5</v>
       </c>
       <c r="C258">
-        <v>173.5328967485016</v>
+        <v>173.78663148442953</v>
       </c>
       <c r="D258">
-        <v>172.6817242143045</v>
+        <v>172.97871642027658</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -4054,10 +4054,10 @@
         <v>6</v>
       </c>
       <c r="C259">
-        <v>166.46840854742547</v>
+        <v>166.71315283862742</v>
       </c>
       <c r="D259">
-        <v>163.64629634732242</v>
+        <v>163.93265911172239</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4068,10 +4068,10 @@
         <v>7</v>
       </c>
       <c r="C260">
-        <v>232.25132444418449</v>
+        <v>232.72863728591119</v>
       </c>
       <c r="D260">
-        <v>238.73993491836796</v>
+        <v>239.29823978518209</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -4082,10 +4082,10 @@
         <v>8</v>
       </c>
       <c r="C261">
-        <v>174.81317322465333</v>
+        <v>175.13856537292881</v>
       </c>
       <c r="D261">
-        <v>182.31267612317035</v>
+        <v>182.69316584845899</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -4096,10 +4096,10 @@
         <v>9</v>
       </c>
       <c r="C262">
-        <v>196.25791376114671</v>
+        <v>196.63746484642607</v>
       </c>
       <c r="D262">
-        <v>205.94189934462182</v>
+        <v>206.38561209516359</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -4110,10 +4110,10 @@
         <v>10</v>
       </c>
       <c r="C263">
-        <v>216.90016541445732</v>
+        <v>217.31615305449512</v>
       </c>
       <c r="D263">
-        <v>226.06355954775765</v>
+        <v>226.54948126494</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -4124,10 +4124,10 @@
         <v>11</v>
       </c>
       <c r="C264">
-        <v>251.65872871061691</v>
+        <v>252.19056473178105</v>
       </c>
       <c r="D264">
-        <v>265.49826503105766</v>
+        <v>266.11917564083205</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -4138,10 +4138,10 @@
         <v>12</v>
       </c>
       <c r="C265">
-        <v>222.8218437003668</v>
+        <v>223.12230029331994</v>
       </c>
       <c r="D265">
-        <v>218.42573672521928</v>
+        <v>218.77690900182324</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -4152,10 +4152,10 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>246.69631069418551</v>
+        <v>247.05117293272218</v>
       </c>
       <c r="D266">
-        <v>243.80248598976348</v>
+        <v>244.22146357676081</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -4166,10 +4166,10 @@
         <v>2</v>
       </c>
       <c r="C267">
-        <v>175.54946871504481</v>
+        <v>175.84204770229255</v>
       </c>
       <c r="D267">
-        <v>177.94327321085996</v>
+        <v>178.28993257167937</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4180,10 +4180,10 @@
         <v>3</v>
       </c>
       <c r="C268">
-        <v>244.22634327854846</v>
+        <v>244.73080166888073</v>
       </c>
       <c r="D268">
-        <v>251.98622099622403</v>
+        <v>252.58262092839368</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -4194,10 +4194,10 @@
         <v>4</v>
       </c>
       <c r="C269">
-        <v>193.98247506067378</v>
+        <v>194.37360131474179</v>
       </c>
       <c r="D269">
-        <v>205.01801911499462</v>
+        <v>205.48074475217291</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -4208,10 +4208,10 @@
         <v>5</v>
       </c>
       <c r="C270">
-        <v>226.87709015031766</v>
+        <v>227.32490649001639</v>
       </c>
       <c r="D270">
-        <v>238.3807214281135</v>
+        <v>238.91021259031805</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -4222,10 +4222,10 @@
         <v>6</v>
       </c>
       <c r="C271">
-        <v>327.20558515189242</v>
+        <v>327.99994373586088</v>
       </c>
       <c r="D271">
-        <v>350.23088300172634</v>
+        <v>351.1708384074168</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -4236,10 +4236,10 @@
         <v>7</v>
       </c>
       <c r="C272">
-        <v>252.7399159068128</v>
+        <v>253.20206876061607</v>
       </c>
       <c r="D272">
-        <v>259.9741197004991</v>
+        <v>260.52012112601784</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -4250,10 +4250,10 @@
         <v>8</v>
       </c>
       <c r="C273">
-        <v>294.50112315545834</v>
+        <v>294.98898696279264</v>
       </c>
       <c r="D273">
-        <v>293.32061145700959</v>
+        <v>293.89657686184836</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -4264,10 +4264,10 @@
         <v>9</v>
       </c>
       <c r="C274">
-        <v>240.32557854919961</v>
+        <v>240.75323832092093</v>
       </c>
       <c r="D274">
-        <v>250.61106803476733</v>
+        <v>251.11609263197568</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -4278,10 +4278,10 @@
         <v>10</v>
       </c>
       <c r="C275">
-        <v>203.99278216471009</v>
+        <v>204.28415774403234</v>
       </c>
       <c r="D275">
-        <v>209.02914854272569</v>
+        <v>209.37194271634667</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -4292,10 +4292,10 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>246.86552280029582</v>
+        <v>247.35763491445007</v>
       </c>
       <c r="D276">
-        <v>259.49122389838891</v>
+        <v>260.07058600419725</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -4306,10 +4306,10 @@
         <v>12</v>
       </c>
       <c r="C277">
-        <v>234.76869430750361</v>
+        <v>235.18487734075856</v>
       </c>
       <c r="D277">
-        <v>244.72069671617621</v>
+        <v>245.21209363846179</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -4320,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="C278">
-        <v>194.42580451029346</v>
+        <v>194.75234600357371</v>
       </c>
       <c r="D278">
-        <v>199.50566785981459</v>
+        <v>199.88896123200593</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -4334,10 +4334,10 @@
         <v>2</v>
       </c>
       <c r="C279">
-        <v>198.71272794685999</v>
+        <v>198.96309256190844</v>
       </c>
       <c r="D279">
-        <v>198.16152129361424</v>
+        <v>198.45743598107808</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -4348,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="C280">
-        <v>320.32335089575668</v>
+        <v>320.60580447712516</v>
       </c>
       <c r="D280">
-        <v>311.64274682549615</v>
+        <v>311.97583850746054</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -4362,10 +4362,10 @@
         <v>4</v>
       </c>
       <c r="C281">
-        <v>331.6438416806804</v>
+        <v>332.06267084473586</v>
       </c>
       <c r="D281">
-        <v>335.08079872812868</v>
+        <v>335.57658988022098</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -4376,10 +4376,10 @@
         <v>5</v>
       </c>
       <c r="C282">
-        <v>420.86116519621538</v>
+        <v>421.50885868942237</v>
       </c>
       <c r="D282">
-        <v>424.26034877846212</v>
+        <v>425.02321189833759</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -4390,10 +4390,10 @@
         <v>6</v>
       </c>
       <c r="C283">
-        <v>314.37757580747041</v>
+        <v>314.92170414929086</v>
       </c>
       <c r="D283">
-        <v>325.26442719837144</v>
+        <v>325.90556348156531</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -4404,10 +4404,10 @@
         <v>7</v>
       </c>
       <c r="C284">
-        <v>317.03777120151449</v>
+        <v>317.45809960293161</v>
       </c>
       <c r="D284">
-        <v>308.80911524787047</v>
+        <v>309.30381434110024</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -4418,10 +4418,10 @@
         <v>8</v>
       </c>
       <c r="C285">
-        <v>294.34548841495592</v>
+        <v>294.93607517430445</v>
       </c>
       <c r="D285">
-        <v>304.57517525419496</v>
+        <v>305.26781303475025</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -4432,10 +4432,10 @@
         <v>9</v>
       </c>
       <c r="C286">
-        <v>314.93675042683782</v>
+        <v>315.58050783374978</v>
       </c>
       <c r="D286">
-        <v>328.15027058004824</v>
+        <v>328.90586601501792</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -4446,10 +4446,10 @@
         <v>10</v>
       </c>
       <c r="C287">
-        <v>310.20220140494717</v>
+        <v>310.72365324566243</v>
       </c>
       <c r="D287">
-        <v>313.33273961401528</v>
+        <v>313.94323343152337</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -4460,10 +4460,10 @@
         <v>11</v>
       </c>
       <c r="C288">
-        <v>405.07039154463217</v>
+        <v>405.93904467406549</v>
       </c>
       <c r="D288">
-        <v>421.86132802158528</v>
+        <v>422.87876484736404</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -4474,10 +4474,10 @@
         <v>12</v>
       </c>
       <c r="C289">
-        <v>307.48355464715218</v>
+        <v>308.05790202889614</v>
       </c>
       <c r="D289">
-        <v>315.25222556632389</v>
+        <v>315.92576926846226</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -4488,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="C290">
-        <v>276.57872605382022</v>
+        <v>277.09725421638399</v>
       </c>
       <c r="D290">
-        <v>283.43555015499783</v>
+        <v>284.02349086262097</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -4502,10 +4502,10 @@
         <v>2</v>
       </c>
       <c r="C291">
-        <v>197.50372710983433</v>
+        <v>197.82407412842264</v>
       </c>
       <c r="D291">
-        <v>200.24781146414506</v>
+        <v>200.61254936694937</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -4516,10 +4516,10 @@
         <v>3</v>
       </c>
       <c r="C292">
-        <v>215.95859087234388</v>
+        <v>216.36902066617213</v>
       </c>
       <c r="D292">
-        <v>221.63177711933619</v>
+        <v>222.09831227965185</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -4530,10 +4530,10 @@
         <v>4</v>
       </c>
       <c r="C293">
-        <v>198.32125746097577</v>
+        <v>198.70956853858135</v>
       </c>
       <c r="D293">
-        <v>206.58106780949043</v>
+        <v>207.0239541429045</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -4544,10 +4544,10 @@
         <v>5</v>
       </c>
       <c r="C294">
-        <v>176.251200596605</v>
+        <v>176.54403078475795</v>
       </c>
       <c r="D294">
-        <v>179.96702115256667</v>
+        <v>180.30036684389026</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -4558,10 +4558,10 @@
         <v>6</v>
       </c>
       <c r="C295">
-        <v>173.72516194247527</v>
+        <v>174.02100611018989</v>
       </c>
       <c r="D295">
-        <v>181.30200964902775</v>
+        <v>181.63906190658599</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -4572,10 +4572,10 @@
         <v>7</v>
       </c>
       <c r="C296">
-        <v>192.18183064064891</v>
+        <v>192.491695508742</v>
       </c>
       <c r="D296">
-        <v>190.73351528423163</v>
+        <v>191.08561132730622</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -4586,10 +4586,10 @@
         <v>8</v>
       </c>
       <c r="C297">
-        <v>205.50877218330206</v>
+        <v>205.9261328729086</v>
       </c>
       <c r="D297">
-        <v>210.32004271543539</v>
+        <v>210.78926991378827</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -4600,10 +4600,10 @@
         <v>9</v>
       </c>
       <c r="C298">
-        <v>215.73415999463657</v>
+        <v>216.10833278656173</v>
       </c>
       <c r="D298">
-        <v>220.12851890073469</v>
+        <v>220.55357403557014</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -4614,10 +4614,10 @@
         <v>10</v>
       </c>
       <c r="C299">
-        <v>191.00061847541582</v>
+        <v>191.34995444829494</v>
       </c>
       <c r="D299">
-        <v>195.6532883440151</v>
+        <v>196.04673649097171</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -4628,10 +4628,10 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>233.55175562750509</v>
+        <v>234.01104343606406</v>
       </c>
       <c r="D300">
-        <v>235.03020147655775</v>
+        <v>235.54847159650816</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -4642,10 +4642,10 @@
         <v>12</v>
       </c>
       <c r="C301">
-        <v>263.98037410973166</v>
+        <v>264.45682047423071</v>
       </c>
       <c r="D301">
-        <v>267.92297718187888</v>
+        <v>268.4616988956613</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -4656,10 +4656,10 @@
         <v>1</v>
       </c>
       <c r="C302">
-        <v>226.53850656191221</v>
+        <v>226.96891400964307</v>
       </c>
       <c r="D302">
-        <v>233.96206717051524</v>
+        <v>234.45925355920116</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -4670,10 +4670,10 @@
         <v>2</v>
       </c>
       <c r="C303">
-        <v>178.61087963480048</v>
+        <v>178.83372859445495</v>
       </c>
       <c r="D303">
-        <v>186.56867876857902</v>
+        <v>186.82651551688826</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -4684,10 +4684,10 @@
         <v>3</v>
       </c>
       <c r="C304">
-        <v>302.5259318055376</v>
+        <v>302.99930541266559</v>
       </c>
       <c r="D304">
-        <v>306.04708799597279</v>
+        <v>306.59568499367873</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -4698,10 +4698,10 @@
         <v>4</v>
       </c>
       <c r="C305">
-        <v>273.5345604505851</v>
+        <v>273.97223975254053</v>
       </c>
       <c r="D305">
-        <v>288.45873226492637</v>
+        <v>288.96710957763543</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -4712,10 +4712,10 @@
         <v>5</v>
       </c>
       <c r="C306">
-        <v>281.24106814078488</v>
+        <v>281.74743731147765</v>
       </c>
       <c r="D306">
-        <v>290.96344811018508</v>
+        <v>291.5508821770336</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -4726,10 +4726,10 @@
         <v>6</v>
       </c>
       <c r="C307">
-        <v>252.88320797223412</v>
+        <v>253.30670977856278</v>
       </c>
       <c r="D307">
-        <v>265.73975970321396</v>
+        <v>266.2320802190257</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -4740,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="C308">
-        <v>298.41995018201385</v>
+        <v>298.90264447182597</v>
       </c>
       <c r="D308">
-        <v>305.93293060615406</v>
+        <v>306.49098948042547</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -4754,10 +4754,10 @@
         <v>8</v>
       </c>
       <c r="C309">
-        <v>239.65286838622649</v>
+        <v>240.03169198330377</v>
       </c>
       <c r="D309">
-        <v>242.13035049517333</v>
+        <v>242.563560941931</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -4768,10 +4768,10 @@
         <v>9</v>
       </c>
       <c r="C310">
-        <v>252.65249678789397</v>
+        <v>252.98001900987583</v>
       </c>
       <c r="D310">
-        <v>254.37140477558611</v>
+        <v>254.74969002399541</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -4782,10 +4782,10 @@
         <v>10</v>
       </c>
       <c r="C311">
-        <v>269.19910792885065</v>
+        <v>269.5576916546932</v>
       </c>
       <c r="D311">
-        <v>269.53701022979783</v>
+        <v>269.94973781523379</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -4796,10 +4796,10 @@
         <v>11</v>
       </c>
       <c r="C312">
-        <v>317.10471371773536</v>
+        <v>317.71710554921054</v>
       </c>
       <c r="D312">
-        <v>327.5913978896877</v>
+        <v>328.29761586117729</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -4810,10 +4810,10 @@
         <v>12</v>
       </c>
       <c r="C313">
-        <v>244.4389468563347</v>
+        <v>244.86427508862499</v>
       </c>
       <c r="D313">
-        <v>256.22194914882476</v>
+        <v>256.71220950155976</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -4824,10 +4824,10 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>220.91040777905388</v>
+        <v>221.26600178887702</v>
       </c>
       <c r="D314">
-        <v>229.50966687250425</v>
+        <v>229.9478413661854</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -4838,10 +4838,10 @@
         <v>2</v>
       </c>
       <c r="C315">
-        <v>246.16917449921473</v>
+        <v>246.63108578842946</v>
       </c>
       <c r="D315">
-        <v>263.69857797795345</v>
+        <v>264.2695590895259</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -4852,10 +4852,10 @@
         <v>3</v>
       </c>
       <c r="C316">
-        <v>320.30443835056974</v>
+        <v>320.95409558863645</v>
       </c>
       <c r="D316">
-        <v>340.15240812380375</v>
+        <v>340.95673959388978</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -4866,10 +4866,10 @@
         <v>4</v>
       </c>
       <c r="C317">
-        <v>259.96956909071628</v>
+        <v>260.43906613767416</v>
       </c>
       <c r="D317">
-        <v>284.63300273904071</v>
+        <v>285.21951030653582</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -4880,10 +4880,10 @@
         <v>5</v>
       </c>
       <c r="C318">
-        <v>214.84601035470558</v>
+        <v>215.11254656471712</v>
       </c>
       <c r="D318">
-        <v>214.16398351013274</v>
+        <v>214.49991156462869</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -4894,10 +4894,10 @@
         <v>6</v>
       </c>
       <c r="C319">
-        <v>225.63484810824838</v>
+        <v>225.98622140603393</v>
       </c>
       <c r="D319">
-        <v>238.57863920329686</v>
+        <v>239.01659342224175</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -4908,10 +4908,10 @@
         <v>7</v>
       </c>
       <c r="C320">
-        <v>195.26864790491737</v>
+        <v>195.58813001308849</v>
       </c>
       <c r="D320">
-        <v>203.35246914918164</v>
+        <v>203.7424290637706</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -4922,10 +4922,10 @@
         <v>8</v>
       </c>
       <c r="C321">
-        <v>178.50426380734652</v>
+        <v>178.84707900083797</v>
       </c>
       <c r="D321">
-        <v>188.63622295130918</v>
+        <v>189.04821747516422</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -4936,10 +4936,10 @@
         <v>9</v>
       </c>
       <c r="C322">
-        <v>204.50979676392507</v>
+        <v>204.82686539781875</v>
       </c>
       <c r="D322">
-        <v>213.466529030591</v>
+        <v>213.85829750902445</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -4950,10 +4950,10 @@
         <v>10</v>
       </c>
       <c r="C323">
-        <v>193.20259423015486</v>
+        <v>193.41911024688079</v>
       </c>
       <c r="D323">
-        <v>199.58420791043443</v>
+        <v>199.84918679111294</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -4964,10 +4964,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>211.32566003323905</v>
+        <v>211.63040001006149</v>
       </c>
       <c r="D324">
-        <v>221.34272132510151</v>
+        <v>221.71643019146018</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -4978,10 +4978,10 @@
         <v>12</v>
       </c>
       <c r="C325">
-        <v>227.45620769391263</v>
+        <v>227.86503313474938</v>
       </c>
       <c r="D325">
-        <v>250.18226972569553</v>
+        <v>250.6849982388583</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -4992,10 +4992,10 @@
         <v>1</v>
       </c>
       <c r="C326">
-        <v>244.62771530555375</v>
+        <v>245.0900914283761</v>
       </c>
       <c r="D326">
-        <v>263.35429341766456</v>
+        <v>263.93076571993646</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -5006,10 +5006,10 @@
         <v>2</v>
       </c>
       <c r="C327">
-        <v>170.45721635377271</v>
+        <v>170.67391596914027</v>
       </c>
       <c r="D327">
-        <v>182.06285334437578</v>
+        <v>182.33397287735565</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -5020,10 +5020,10 @@
         <v>3</v>
       </c>
       <c r="C328">
-        <v>182.45716873317616</v>
+        <v>182.75468222114586</v>
       </c>
       <c r="D328">
-        <v>189.97592387717415</v>
+        <v>190.35040012838181</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -5034,10 +5034,10 @@
         <v>4</v>
       </c>
       <c r="C329">
-        <v>173.97502291358086</v>
+        <v>174.16575420015351</v>
       </c>
       <c r="D329">
-        <v>178.2169959090607</v>
+        <v>178.46006789004423</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -5048,10 +5048,10 @@
         <v>5</v>
       </c>
       <c r="C330">
-        <v>187.43365166769328</v>
+        <v>187.67452172292718</v>
       </c>
       <c r="D330">
-        <v>191.48511524810544</v>
+        <v>191.7909143576972</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="C331">
-        <v>175.55596527199143</v>
+        <v>175.69562532542903</v>
       </c>
       <c r="D331">
-        <v>175.63653793793512</v>
+        <v>175.81511519472281</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -5076,10 +5076,10 @@
         <v>7</v>
       </c>
       <c r="C332">
-        <v>233.3644411852834</v>
+        <v>233.73497508796581</v>
       </c>
       <c r="D332">
-        <v>244.96034399637099</v>
+        <v>245.42028142979427</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -5090,10 +5090,10 @@
         <v>8</v>
       </c>
       <c r="C333">
-        <v>194.55877354015098</v>
+        <v>194.88700385623156</v>
       </c>
       <c r="D333">
-        <v>202.1807387189281</v>
+        <v>202.57627138181851</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -5104,10 +5104,10 @@
         <v>9</v>
       </c>
       <c r="C334">
-        <v>205.79901582094016</v>
+        <v>206.06839623165021</v>
       </c>
       <c r="D334">
-        <v>211.67420037991423</v>
+        <v>212.01406586256172</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -5118,10 +5118,10 @@
         <v>10</v>
       </c>
       <c r="C335">
-        <v>208.73772331708881</v>
+        <v>209.04188689302484</v>
       </c>
       <c r="D335">
-        <v>215.45506661955153</v>
+        <v>215.82757297890333</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -5132,10 +5132,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>286.2878759049338</v>
+        <v>286.60025612047684</v>
       </c>
       <c r="D336">
-        <v>282.11640524758258</v>
+        <v>282.51316665393438</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -5146,10 +5146,10 @@
         <v>12</v>
       </c>
       <c r="C337">
-        <v>331.97652018197664</v>
+        <v>332.45858266227816</v>
       </c>
       <c r="D337">
-        <v>336.84105057572611</v>
+        <v>337.5859169100238</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -5160,10 +5160,10 @@
         <v>1</v>
       </c>
       <c r="C338">
-        <v>313.01804842285338</v>
+        <v>313.37481995372525</v>
       </c>
       <c r="D338">
-        <v>309.82538839991128</v>
+        <v>310.51677155956963</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -5174,10 +5174,10 @@
         <v>2</v>
       </c>
       <c r="C339">
-        <v>330.78070652980762</v>
+        <v>331.12887063282432</v>
       </c>
       <c r="D339">
-        <v>319.94069815618536</v>
+        <v>320.83451104800366</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -5188,10 +5188,10 @@
         <v>3</v>
       </c>
       <c r="C340">
-        <v>473.30981941720825</v>
+        <v>473.87762492917579</v>
       </c>
       <c r="D340">
-        <v>458.76971458804178</v>
+        <v>460.00608862166638</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -5202,10 +5202,10 @@
         <v>4</v>
       </c>
       <c r="C341">
-        <v>628.47560074707576</v>
+        <v>629.10734632561309</v>
       </c>
       <c r="D341">
-        <v>585.06896256138612</v>
+        <v>586.1978822275637</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -5216,10 +5216,10 @@
         <v>5</v>
       </c>
       <c r="C342">
-        <v>519.93605237930865</v>
+        <v>518.30578992573055</v>
       </c>
       <c r="D342">
-        <v>487.70823258006112</v>
+        <v>486.33346173725903</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -5230,10 +5230,10 @@
         <v>6</v>
       </c>
       <c r="C343">
-        <v>371.04540478823776</v>
+        <v>372.2638063309941</v>
       </c>
       <c r="D343">
-        <v>357.87896040806999</v>
+        <v>359.44422579993574</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -5244,10 +5244,10 @@
         <v>7</v>
       </c>
       <c r="C344">
-        <v>411.7030067719237</v>
+        <v>412.66240265870243</v>
       </c>
       <c r="D344">
-        <v>395.07158504195928</v>
+        <v>396.01465039549845</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -5258,14 +5258,28 @@
         <v>8</v>
       </c>
       <c r="C345">
-        <v>322.12340515256653</v>
+        <v>340.89051998494881</v>
       </c>
       <c r="D345">
-        <v>312.88934138397434</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+        <v>326.83528866439542</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>2025</v>
+      </c>
+      <c r="B346">
+        <v>9</v>
+      </c>
+      <c r="C346">
+        <v>302.70154021403499</v>
+      </c>
+      <c r="D346">
+        <v>291.05219047736955</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>4</v>
       </c>
     </row>
